--- a/ControlBook Mensal/clientes/TUPY.xlsx
+++ b/ControlBook Mensal/clientes/TUPY.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,1215 +575,1216 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000445</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>01/02/2023 08:22</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>44985.41666666666</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44985.42222222222</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>VALIDAÇÃO DE USUÁRIOS - TUPY HOLANDA - NAO FAZ LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">BOM DIA,  JÁ FOI ABERTO UM CHAMADO REFERENTE A ISSO.PODERIAM VALIDAR SE OS USUÁRIOS ABAIXO ESTÃO EXPIRADOS E/OU BLOQUEADOS? OU A SENHA EXPIRADA. POIS EFETUAMOS A CONFIGURAÇÃO DO OPENSCAPE EM DOIS NOTEBOOKS DIFERENTES POREM NÃO PERMITE CHAMA DUAS VEZES E A LIGAÇÃO CAI.  TELEFONEUSUÁRIOID DO USUÁRIOSENHA ID USUÁRIOSENHA CONF. FUSION31266690517IRIS LUCIANA ARAUJO ALVAREZIRIS.LUCIANATUPY@2022TUPY@202231266690519KAROLINE DE VALGAS DA ROSAKAROLINE.ROSATUPY@2022TUPY@202231266690512LUAN HENRIQUE LOURENCAOLUAN.HENRIQUETUPY@2022TUPY@202231266690224KAROLINY TAIANE DA CRUZKAROLINY.TAIANETUPY@2022TUPY@202231266690238PATRIKI DA COSTA AMORIM CLAROPATRIKI.COSTATUPY@2022TUPY@202231266690521IZAQUE ABREU DE ARRUDAIZAQUE.ABREUTUPY@2022TUPY@202231266690226BEATRIZ HELENA FERRARIBEATRIZ.HELENATUPY@2022TUPY@202231266690227GUILHERME AMARAL MOCELINGUILHERME.AMARALTUPY@2022TUPY@202231266690223SIDNEI BUENO VIDASIDNEI.BUENOTUPY@2022TUPY@202231266690237FELIPE DE SOUZA PINTO BARBOSAFELIPE.SOUZATUPY@2022TUPY@202231266690513VINICIUS SCHRAMM COSTAVINICIUS.SCHRAMMTUPY@2022TUPY@2022 </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>HOLANDA</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>202302011258935529-</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000458</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <v>44960.26666666667</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>44960.26736111111</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44960.32847222222</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>RAMAL COM PROBLEMAS - JOINVILLE</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>BOM DIA, VERIFICAR O RAMAL 8660, IP = 10.47.5.150 E VALIDAR ROTAS.</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="5" t="inlineStr">
         <is>
           <t>21:37:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000461</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 09:59</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="n">
         <v>44960.33958333333</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44960.34097222222</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>BOM DIA,  CRIAR O RAMAL  8588, 8730, 8545 E 8220.</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Y4" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000502</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 08:35</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE - CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>BOM DIA,  CONFIGURAR NOME DOS RAMAIS:RAMAL 8616 – RINALDO GONÇALVES RAMAL 8393 – FERNANDA REINERT</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000527</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 10:19</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>44966.43472222222</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE -CRIAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>BOM DIA CRIAR O RAMAL 8534 E 9068.</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="3" t="n">
         <v>202302000528</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>07/02/2023 10:30</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
         <v>44966.43263888889</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="4" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE  - CONFIGURAÇÃO DA CAPTURA DE GRUPO</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>BOM DIA,  CHECAR A CAPTURA DE GRUPO DOS SEGUINTES RAMAIS:81658264 8339 84068489 8616 8393 86178618 8256 83348615816381058434830582858353</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
+      <c r="W7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Y7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000587</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>10/02/2023 10:36</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n">
         <v>44970.46666666667</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="6" t="n">
         <v>44970.46875</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - RAMAL </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>BOM DIA, PODERIAM CHECAR SE O RAMAL 8216 SE ENCONTRA REGISTRADO NA PLATAFORMA?</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="5" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>CHAMADO ENCERRADO APÓS INFORMAÇÕES PASSADAS PARA O CLIENTE SOBRE O RAMAL 8216</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="5" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="5" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000706</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>23/02/2023 09:09</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n">
         <v>44981.37083333333</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="6" t="n">
         <v>44981.40486111111</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - VALIDAR RAMAL </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>BOM DIA,  VALIDAR O RAMAL 8726.</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="5" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>CONFORME VALIDADO PELA COLABORADORA JULIA SOARES, APÓS VALIDAR A ROTA DO RAMAL, O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="5" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="5" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000726</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 15:18</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 14:20</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="6" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="6" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="6" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICO</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICOIP: 177.52.23.2REMOTE: 200.76.134.242</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>MEXICO</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>15:50:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="3" t="n">
         <v>202302000766</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>28/02/2023 10:23</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>BOM DIA, CRIAR O RAMAL 8100.</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="3" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="3" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="W11" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/TUPY.xlsx
+++ b/ControlBook Mensal/clientes/TUPY.xlsx
@@ -63,16 +63,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,1338 +458,1338 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000445</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>01/02/2023 08:22</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>44985.41666666666</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44985.42222222222</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>VALIDAÇÃO DE USUÁRIOS - TUPY HOLANDA - NAO FAZ LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BOM DIA,  JÁ FOI ABERTO UM CHAMADO REFERENTE A ISSO.PODERIAM VALIDAR SE OS USUÁRIOS ABAIXO ESTÃO EXPIRADOS E/OU BLOQUEADOS? OU A SENHA EXPIRADA. POIS EFETUAMOS A CONFIGURAÇÃO DO OPENSCAPE EM DOIS NOTEBOOKS DIFERENTES POREM NÃO PERMITE CHAMA DUAS VEZES E A LIGAÇÃO CAI.  TELEFONEUSUÁRIOID DO USUÁRIOSENHA ID USUÁRIOSENHA CONF. FUSION31266690517IRIS LUCIANA ARAUJO ALVAREZIRIS.LUCIANATUPY@2022TUPY@202231266690519KAROLINE DE VALGAS DA ROSAKAROLINE.ROSATUPY@2022TUPY@202231266690512LUAN HENRIQUE LOURENCAOLUAN.HENRIQUETUPY@2022TUPY@202231266690224KAROLINY TAIANE DA CRUZKAROLINY.TAIANETUPY@2022TUPY@202231266690238PATRIKI DA COSTA AMORIM CLAROPATRIKI.COSTATUPY@2022TUPY@202231266690521IZAQUE ABREU DE ARRUDAIZAQUE.ABREUTUPY@2022TUPY@202231266690226BEATRIZ HELENA FERRARIBEATRIZ.HELENATUPY@2022TUPY@202231266690227GUILHERME AMARAL MOCELINGUILHERME.AMARALTUPY@2022TUPY@202231266690223SIDNEI BUENO VIDASIDNEI.BUENOTUPY@2022TUPY@202231266690237FELIPE DE SOUZA PINTO BARBOSAFELIPE.SOUZATUPY@2022TUPY@202231266690513VINICIUS SCHRAMM COSTAVINICIUS.SCHRAMMTUPY@2022TUPY@2022 </t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>HOLANDA</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>202302011258935529-</t>
         </is>
       </c>
-      <c r="X2" s="5" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="Y2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000458</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>44960.26666666667</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>44960.26736111111</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44960.32847222222</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>RAMAL COM PROBLEMAS - JOINVILLE</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>BOM DIA, VERIFICAR O RAMAL 8660, IP = 10.47.5.150 E VALIDAR ROTAS.</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="5" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="5" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>21:37:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000461</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 09:59</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>44960.33958333333</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44960.34097222222</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>BOM DIA,  CRIAR O RAMAL  8588, 8730, 8545 E 8220.</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="5" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="inlineStr">
+      <c r="Y4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000502</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 08:35</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE - CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>BOM DIA,  CONFIGURAR NOME DOS RAMAIS:RAMAL 8616 – RINALDO GONÇALVES RAMAL 8393 – FERNANDA REINERT</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="5" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000527</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 10:19</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="n">
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n">
         <v>44966.43472222222</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE -CRIAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t>BOM DIA CRIAR O RAMAL 8534 E 9068.</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="5" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="Y6" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>202302000528</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>07/02/2023 10:30</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="n">
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>44966.43263888889</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="5" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="L7" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE  - CONFIGURAÇÃO DA CAPTURA DE GRUPO</t>
         </is>
       </c>
-      <c r="M7" s="3" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>BOM DIA,  CHECAR A CAPTURA DE GRUPO DOS SEGUINTES RAMAIS:81658264 8339 84068489 8616 8393 86178618 8256 83348615816381058434830582858353</t>
         </is>
       </c>
-      <c r="N7" s="3" t="inlineStr">
+      <c r="N7" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O7" s="3" t="inlineStr">
+      <c r="O7" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" s="3" t="inlineStr">
+      <c r="P7" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="S7" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="3" t="inlineStr">
+      <c r="T7" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="3" t="inlineStr">
+      <c r="U7" s="4" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="V7" s="3" t="inlineStr">
+      <c r="V7" s="4" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="W7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="5" t="inlineStr">
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="inlineStr">
+      <c r="Y7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <v>202302000587</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 10:36</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="n">
         <v>44970.46666666667</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>44970.46875</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - RAMAL </t>
         </is>
       </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, PODERIAM CHECAR SE O RAMAL 8216 SE ENCONTRA REGISTRADO NA PLATAFORMA?</t>
         </is>
       </c>
-      <c r="N8" s="5" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O8" s="5" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>CHAMADO ENCERRADO APÓS INFORMAÇÕES PASSADAS PARA O CLIENTE SOBRE O RAMAL 8216</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="W8" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <v>202302000706</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>23/02/2023 09:09</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n">
         <v>44981.37083333333</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>44981.40486111111</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K9" s="5" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="5" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - VALIDAR RAMAL </t>
         </is>
       </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,  VALIDAR O RAMAL 8726.</t>
         </is>
       </c>
-      <c r="N9" s="5" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O9" s="5" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" s="5" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="5" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t>CONFORME VALIDADO PELA COLABORADORA JULIA SOARES, APÓS VALIDAR A ROTA DO RAMAL, O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S9" s="5" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="5" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="V9" s="5" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
+      <c r="W9" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="5" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>202302000726</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 15:18</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 14:20</t>
         </is>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICO</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICOIP: 177.52.23.2REMOTE: 200.76.134.242</t>
         </is>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>MEXICO</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="5" t="inlineStr">
+      <c r="W10" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>15:50:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="4" t="n">
         <v>202302000766</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>28/02/2023 10:23</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I11" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K11" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="L11" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>BOM DIA, CRIAR O RAMAL 8100.</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N11" s="4" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O11" s="3" t="inlineStr">
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P11" s="3" t="inlineStr">
+      <c r="P11" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
+      <c r="Q11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="4" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="S11" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="3" t="inlineStr">
+      <c r="T11" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="3" t="inlineStr">
+      <c r="U11" s="4" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="V11" s="3" t="inlineStr">
+      <c r="V11" s="4" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="W11" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="5" t="inlineStr">
+      <c r="W11" s="4" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Y11" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>

--- a/ControlBook Mensal/clientes/TUPY.xlsx
+++ b/ControlBook Mensal/clientes/TUPY.xlsx
@@ -63,13 +63,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -79,6 +85,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -463,1333 +472,1333 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000445</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>01/02/2023 08:22</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="n">
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="n">
         <v>44985.41666666666</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44985.42222222222</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>VALIDAÇÃO DE USUÁRIOS - TUPY HOLANDA - NAO FAZ LIGAÇÕES</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOM DIA,  JÁ FOI ABERTO UM CHAMADO REFERENTE A ISSO.PODERIAM VALIDAR SE OS USUÁRIOS ABAIXO ESTÃO EXPIRADOS E/OU BLOQUEADOS? OU A SENHA EXPIRADA. POIS EFETUAMOS A CONFIGURAÇÃO DO OPENSCAPE EM DOIS NOTEBOOKS DIFERENTES POREM NÃO PERMITE CHAMA DUAS VEZES E A LIGAÇÃO CAI.  TELEFONEUSUÁRIOID DO USUÁRIOSENHA ID USUÁRIOSENHA CONF. FUSION31266690517IRIS LUCIANA ARAUJO ALVAREZIRIS.LUCIANATUPY@2022TUPY@202231266690519KAROLINE DE VALGAS DA ROSAKAROLINE.ROSATUPY@2022TUPY@202231266690512LUAN HENRIQUE LOURENCAOLUAN.HENRIQUETUPY@2022TUPY@202231266690224KAROLINY TAIANE DA CRUZKAROLINY.TAIANETUPY@2022TUPY@202231266690238PATRIKI DA COSTA AMORIM CLAROPATRIKI.COSTATUPY@2022TUPY@202231266690521IZAQUE ABREU DE ARRUDAIZAQUE.ABREUTUPY@2022TUPY@202231266690226BEATRIZ HELENA FERRARIBEATRIZ.HELENATUPY@2022TUPY@202231266690227GUILHERME AMARAL MOCELINGUILHERME.AMARALTUPY@2022TUPY@202231266690223SIDNEI BUENO VIDASIDNEI.BUENOTUPY@2022TUPY@202231266690237FELIPE DE SOUZA PINTO BARBOSAFELIPE.SOUZATUPY@2022TUPY@202231266690513VINICIUS SCHRAMM COSTAVINICIUS.SCHRAMMTUPY@2022TUPY@2022 </t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>HOLANDA</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>13:52:18</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
         <is>
           <t>202302011258935529-</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y2" s="6" t="inlineStr">
+      <c r="Y2" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000458</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 08:47</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="7" t="n">
         <v>44960.26666666667</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="7" t="n">
         <v>44960.26736111111</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44960.32847222222</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>RAMAL COM PROBLEMAS - JOINVILLE</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, VERIFICAR O RAMAL 8660, IP = 10.47.5.150 E VALIDAR ROTAS.</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>13:29:00</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X3" s="6" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X3" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y3" s="6" t="inlineStr">
+      <c r="Y3" s="8" t="inlineStr">
         <is>
           <t>21:37:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000461</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 09:59</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="n">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="n">
         <v>44960.33958333333</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44960.34097222222</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,  CRIAR O RAMAL  8588, 8730, 8545 E 8220.</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>12:17:06</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X4" s="6" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X4" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y4" s="6" t="inlineStr">
+      <c r="Y4" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000502</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 08:35</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE - CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,  CONFIGURAR NOME DOS RAMAIS:RAMAL 8616 – RINALDO GONÇALVES RAMAL 8393 – FERNANDA REINERT</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>15:02:05</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X5" s="6" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X5" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y5" s="6" t="inlineStr">
+      <c r="Y5" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000527</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 10:19</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H6" s="7" t="n">
         <v>44966.43472222222</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44966.4375</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE -CRIAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t>BOM DIA CRIAR O RAMAL 8534 E 9068.</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>12:13:20</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X6" s="6" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X6" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y6" s="6" t="inlineStr">
+      <c r="Y6" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000528</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>07/02/2023 10:30</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="n">
         <v>44966.43263888889</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>44966.43680555555</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE  - CONFIGURAÇÃO DA CAPTURA DE GRUPO</t>
         </is>
       </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t>BOM DIA,  CHECAR A CAPTURA DE GRUPO DOS SEGUINTES RAMAIS:81658264 8339 84068489 8616 8393 86178618 8256 83348615816381058434830582858353</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O7" s="4" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P7" s="4" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S7" s="4" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="4" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="4" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="V7" s="4" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>12:02:46</t>
         </is>
       </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X7" s="6" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X7" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y7" s="6" t="inlineStr">
+      <c r="Y7" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="9" t="n">
         <v>202302000587</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>10/02/2023 10:36</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="n">
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="n">
         <v>44970.46666666667</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="10" t="n">
         <v>44970.46875</v>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K8" s="6" t="inlineStr">
+      <c r="K8" s="8" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - RAMAL </t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="8" t="inlineStr">
         <is>
           <t>BOM DIA, PODERIAM CHECAR SE O RAMAL 8216 SE ENCONTRA REGISTRADO NA PLATAFORMA?</t>
         </is>
       </c>
-      <c r="N8" s="6" t="inlineStr">
+      <c r="N8" s="8" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O8" s="6" t="inlineStr">
+      <c r="O8" s="8" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P8" s="6" t="inlineStr">
+      <c r="P8" s="8" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R8" s="6" t="inlineStr">
+      <c r="Q8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R8" s="8" t="inlineStr">
         <is>
           <t>CHAMADO ENCERRADO APÓS INFORMAÇÕES PASSADAS PARA O CLIENTE SOBRE O RAMAL 8216</t>
         </is>
       </c>
-      <c r="S8" s="6" t="inlineStr">
+      <c r="S8" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="6" t="inlineStr">
+      <c r="T8" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U8" s="6" t="inlineStr">
+      <c r="U8" s="8" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="V8" s="6" t="inlineStr">
+      <c r="V8" s="8" t="inlineStr">
         <is>
           <t>11:10:44</t>
         </is>
       </c>
-      <c r="W8" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X8" s="6" t="inlineStr">
+      <c r="W8" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X8" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y8" s="6" t="inlineStr">
+      <c r="Y8" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="9" t="n">
         <v>202302000706</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t>23/02/2023 09:09</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="n">
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="n">
         <v>44981.37083333333</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="10" t="n">
         <v>44981.40486111111</v>
       </c>
-      <c r="J9" s="6" t="inlineStr">
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K9" s="6" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="6" t="inlineStr">
+      <c r="L9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - VALIDAR RAMAL </t>
         </is>
       </c>
-      <c r="M9" s="6" t="inlineStr">
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t>BOM DIA,  VALIDAR O RAMAL 8726.</t>
         </is>
       </c>
-      <c r="N9" s="6" t="inlineStr">
+      <c r="N9" s="8" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O9" s="6" t="inlineStr">
+      <c r="O9" s="8" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P9" s="6" t="inlineStr">
+      <c r="P9" s="8" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R9" s="6" t="inlineStr">
+      <c r="Q9" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R9" s="8" t="inlineStr">
         <is>
           <t>CONFORME VALIDADO PELA COLABORADORA JULIA SOARES, APÓS VALIDAR A ROTA DO RAMAL, O CHAMADO ESTÁ SENDO ENCERRADO</t>
         </is>
       </c>
-      <c r="S9" s="6" t="inlineStr">
+      <c r="S9" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="6" t="inlineStr">
+      <c r="T9" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="6" t="inlineStr">
+      <c r="U9" s="8" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="V9" s="6" t="inlineStr">
+      <c r="V9" s="8" t="inlineStr">
         <is>
           <t>11:52:35</t>
         </is>
       </c>
-      <c r="W9" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X9" s="6" t="inlineStr">
+      <c r="W9" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X9" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="6" t="inlineStr">
+      <c r="Y9" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="9" t="n">
         <v>202302000726</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>ATENDIMENTO</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    OUTROS</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>24/02/2023 15:18</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>24/02/2023 14:20</t>
         </is>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="10" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="10" t="n">
         <v>44982.25694444445</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="10" t="n">
         <v>44984.25972222222</v>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="8" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="8" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="8" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICO</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="8" t="inlineStr">
         <is>
           <t>VPN TUNNEL VPN-TUPY-MEXICOIP: 177.52.23.2REMOTE: 200.76.134.242</t>
         </is>
       </c>
-      <c r="N10" s="6" t="inlineStr">
+      <c r="N10" s="8" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O10" s="6" t="inlineStr">
+      <c r="O10" s="8" t="inlineStr">
         <is>
           <t>MEXICO</t>
         </is>
       </c>
-      <c r="P10" s="6" t="inlineStr">
+      <c r="P10" s="8" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="6" t="inlineStr">
+      <c r="Q10" s="8" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="6" t="inlineStr">
+      <c r="R10" s="8" t="inlineStr">
         <is>
           <t>VPN NORMALIZOU SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" s="6" t="inlineStr">
+      <c r="S10" s="8" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="6" t="inlineStr">
+      <c r="T10" s="8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="6" t="inlineStr">
+      <c r="U10" s="8" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="V10" s="6" t="inlineStr">
+      <c r="V10" s="8" t="inlineStr">
         <is>
           <t>04:04:35</t>
         </is>
       </c>
-      <c r="W10" s="6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X10" s="6" t="inlineStr">
+      <c r="W10" s="8" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X10" s="8" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="6" t="inlineStr">
+      <c r="Y10" s="8" t="inlineStr">
         <is>
           <t>15:50:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000766</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>SOLICITAÇÃO DE SERVIÇO</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    CONFIGURAÇÃO DE RAMAL</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>28/02/2023 10:23</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>JULIA SOARES</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="4" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">JOINVILLE - CRIAÇÃO DE RAMAL </t>
         </is>
       </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>BOM DIA, CRIAR O RAMAL 8100.</t>
         </is>
       </c>
-      <c r="N11" s="4" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>TUPY</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>JOINVILLE</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="R11" s="4" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="S11" s="4" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="4" t="inlineStr">
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="4" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="V11" s="4" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>10:45:35</t>
         </is>
       </c>
-      <c r="W11" s="4" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="X11" s="6" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="X11" s="8" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y11" s="6" t="inlineStr">
+      <c r="Y11" s="8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
